--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3607883.302692792</v>
+        <v>3715880.813016522</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7625152.495825406</v>
+        <v>7595035.794131109</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>78.8133263828211</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>33.29804472336924</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>38.54642470605227</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>18.93078090706818</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>233.84472917892</v>
+        <v>303.3275050340415</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9397354936811</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>141.6419376306792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.6294263886424</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>264.184366252685</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>118.4194112037784</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>230.6504181306289</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444138</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576162</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.752258470135</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>131.4244133395511</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1667,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722612</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9.795251606876045</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>146.4649598217087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2485,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>208.8723798708782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667496</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784677</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2713,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>40.32853379926828</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2764,16 +2766,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>210.340261657467</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652735</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096048</v>
+        <v>100.4057322893114</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808191</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972055</v>
+        <v>159.2661870898838</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187855</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261742</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.239490800229</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808192</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096048</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>173.1266359366685</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>61.62152140683686</v>
       </c>
       <c r="G43" t="n">
-        <v>141.239490800229</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652574</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808383</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>41.02686156550228</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>850.6201014348521</v>
+        <v>1593.528088680778</v>
       </c>
       <c r="C2" t="n">
-        <v>850.6201014348521</v>
+        <v>1224.565571740366</v>
       </c>
       <c r="D2" t="n">
-        <v>850.6201014348521</v>
+        <v>866.2998731336158</v>
       </c>
       <c r="E2" t="n">
-        <v>850.6201014348521</v>
+        <v>866.2998731336158</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>455.3139683440083</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4367,13 +4369,13 @@
         <v>2353.59368700598</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.825031735865</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X2" t="n">
-        <v>1627.359273474786</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y2" t="n">
-        <v>1237.219941498974</v>
+        <v>1980.1279287449</v>
       </c>
     </row>
     <row r="3">
@@ -4407,28 +4409,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>721.9082577993008</v>
+        <v>624.0678491612455</v>
       </c>
       <c r="C4" t="n">
-        <v>552.9720748713939</v>
+        <v>455.1316662333386</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>305.0150268210028</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.2467865680031</v>
@@ -4510,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1095.133484028446</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.349301773071</v>
+        <v>1095.133484028446</v>
       </c>
       <c r="W4" t="n">
-        <v>1124.349301773071</v>
+        <v>805.7163139914852</v>
       </c>
       <c r="X4" t="n">
-        <v>1124.349301773071</v>
+        <v>805.7163139914852</v>
       </c>
       <c r="Y4" t="n">
-        <v>903.5567226295406</v>
+        <v>805.7163139914852</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1412.134398099141</v>
+        <v>1548.692669339133</v>
       </c>
       <c r="C5" t="n">
-        <v>1043.171881158729</v>
+        <v>1179.730152398721</v>
       </c>
       <c r="D5" t="n">
-        <v>684.9061825519786</v>
+        <v>821.4644537919705</v>
       </c>
       <c r="E5" t="n">
-        <v>299.1179299537344</v>
+        <v>435.6762011937263</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331015</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
         <v>2055.228484740839</v>
@@ -4598,19 +4600,19 @@
         <v>2562.339328400154</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400154</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400154</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400154</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="X5" t="n">
-        <v>2188.873570139074</v>
+        <v>1935.292509403254</v>
       </c>
       <c r="Y5" t="n">
-        <v>1798.734238163262</v>
+        <v>1935.292509403254</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500112</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429764</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744479</v>
+        <v>870.3292415458922</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733668</v>
+        <v>1233.591260505112</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4677,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.2996089082457</v>
+        <v>493.2746700177406</v>
       </c>
       <c r="C7" t="n">
-        <v>201.3634259803388</v>
+        <v>324.3384870898337</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800308</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800308</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4753,22 +4755,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429093</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429093</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>962.1544032232065</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>819.0817389497931</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="X7" t="n">
-        <v>591.0921880517758</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.2996089082457</v>
+        <v>674.9231348479804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1278.358723975039</v>
+        <v>1092.930574522032</v>
       </c>
       <c r="C8" t="n">
-        <v>1278.358723975039</v>
+        <v>1092.930574522032</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066532</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="W8" t="n">
-        <v>2277.953133796418</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="X8" t="n">
-        <v>1904.487375535338</v>
+        <v>1479.530414586153</v>
       </c>
       <c r="Y8" t="n">
-        <v>1514.348043559526</v>
+        <v>1479.530414586153</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>593.0223835625327</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>956.2844025217527</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1343.569531118698</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>479.6639240396553</v>
+        <v>908.4431888110449</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>739.507005883138</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1472.54771232405</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1217.863224118163</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="W10" t="n">
-        <v>928.4460540812028</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="X10" t="n">
-        <v>700.4565031831854</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="Y10" t="n">
-        <v>479.6639240396553</v>
+        <v>1090.091653641285</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5020,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
@@ -5036,37 +5038,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5121,22 +5123,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>244.2098454714565</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L12" t="n">
-        <v>739.5354516872154</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.913939313768</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1964.511902868375</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.963083580261</v>
+        <v>2247.16544716645</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5495,37 +5497,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5749,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5761,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,22 +6074,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.5558870561822</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9969310299521</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.2043518864219</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,25 +6247,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2311.700279152292</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2544.961939527175</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>810.0653816078141</v>
+        <v>3047.140839595365</v>
       </c>
       <c r="C28" t="n">
-        <v>641.1291986799072</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D28" t="n">
-        <v>491.0125592675714</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>1984.597634722449</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.913146516562</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>1440.495976479601</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="X28" t="n">
-        <v>1212.506425581584</v>
+        <v>3449.581883569135</v>
       </c>
       <c r="Y28" t="n">
-        <v>991.7138464380538</v>
+        <v>3228.789304425605</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6543,22 +6545,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319336</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656829</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150036</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942668</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580128</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345491</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384035</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2345.543151974895</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2125.941686997837</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838287</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518752</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582391</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400517</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531932</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656814</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115002</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594054</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400515</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,7 +6943,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319336</v>
+        <v>3342.537229081858</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656829</v>
+        <v>3173.601046153951</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115002</v>
+        <v>3023.484406741615</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>2875.571313159222</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>2728.681365661312</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384019</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979287</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4516.727538815334</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4516.727538815334</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838287</v>
+        <v>4227.652312159532</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>3972.967823953645</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518752</v>
+        <v>3972.967823953645</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582391</v>
+        <v>3744.978273055628</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400517</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="38">
@@ -7166,7 +7168,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,10 +7210,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
         <v>3094.515198591809</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2978.493192213311</v>
+        <v>3175.341129796738</v>
       </c>
       <c r="C40" t="n">
-        <v>2834.08695624706</v>
+        <v>3006.404946868831</v>
       </c>
       <c r="D40" t="n">
-        <v>2708.500263796382</v>
+        <v>2856.288307456495</v>
       </c>
       <c r="E40" t="n">
-        <v>2585.117117175645</v>
+        <v>2708.375213874102</v>
       </c>
       <c r="F40" t="n">
-        <v>2462.757116639391</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="G40" t="n">
-        <v>2320.090964315927</v>
+        <v>2561.485266376192</v>
       </c>
       <c r="H40" t="n">
-        <v>2202.909080119781</v>
+        <v>2419.77343521839</v>
       </c>
       <c r="I40" t="n">
-        <v>2145.352323729351</v>
+        <v>2337.686731866303</v>
       </c>
       <c r="J40" t="n">
-        <v>2249.630143176794</v>
+        <v>2417.922750296627</v>
       </c>
       <c r="K40" t="n">
-        <v>2535.361206719452</v>
+        <v>2679.612012822166</v>
       </c>
       <c r="L40" t="n">
-        <v>2949.801601912512</v>
+        <v>3070.010606998106</v>
       </c>
       <c r="M40" t="n">
-        <v>3395.853105660666</v>
+        <v>3492.020309729141</v>
       </c>
       <c r="N40" t="n">
-        <v>3837.304778337793</v>
+        <v>3909.430181389149</v>
       </c>
       <c r="O40" t="n">
-        <v>4230.875860063898</v>
+        <v>4278.959462098134</v>
       </c>
       <c r="P40" t="n">
-        <v>4547.593116654575</v>
+        <v>4571.634917671693</v>
       </c>
       <c r="Q40" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>4648.317395612652</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4489.992508229213</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T40" t="n">
-        <v>4294.92099021381</v>
+        <v>4404.185983673936</v>
       </c>
       <c r="U40" t="n">
-        <v>4030.375710519664</v>
+        <v>4115.110757018134</v>
       </c>
       <c r="V40" t="n">
-        <v>3800.221169275434</v>
+        <v>3860.426268812247</v>
       </c>
       <c r="W40" t="n">
-        <v>3535.333946200129</v>
+        <v>3571.009098775286</v>
       </c>
       <c r="X40" t="n">
-        <v>3331.874342263768</v>
+        <v>3571.009098775286</v>
       </c>
       <c r="Y40" t="n">
-        <v>3135.611710081894</v>
+        <v>3350.216519631756</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>2878.328163333972</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>3475.706650960524</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>4103.30461451513</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>4655.214344754417</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>4655.214344754417</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>4655.214344754417</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>379.8591585748671</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384019</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931272</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>60.35797727397562</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>70.03064962107845</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241569</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>280.1079373569287</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.955613488307165</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>85.98103698773721</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891647</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>138.8202214113363</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.11969353038612</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24135,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>43.2652634529498</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>126.9182872993595</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>75.84421273177711</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>80.62055371233322</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25129,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>126.9182872993604</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>8.661728554218513</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>6.705344245268776</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>83.79952661609438</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>176.378588761786</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>663542.7995065623</v>
+        <v>670078.9197577402</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671402</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652426.6633671402</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>663542.7995065623</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="C2" t="n">
+        <v>779989.6813710697</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710695</v>
       </c>
-      <c r="D2" t="n">
-        <v>779989.681371069</v>
-      </c>
       <c r="E2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="H2" t="n">
         <v>766789.269705506</v>
       </c>
       <c r="I2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="M2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="K2" t="n">
-        <v>779989.681371069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710695</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403384</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363182</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819086</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>86694.40323307093</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719616</v>
+        <v>7507.36846171962</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719649</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.36846171966</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="J4" t="n">
-        <v>7507.36846171973</v>
-      </c>
       <c r="K4" t="n">
-        <v>15498.22772481315</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481315</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481316</v>
+        <v>7507.368461719716</v>
       </c>
       <c r="N4" t="n">
-        <v>15498.22772481313</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>15498.22772481316</v>
+        <v>7507.368461719684</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984467</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-560813.7381914395</v>
+        <v>-560813.7381914394</v>
       </c>
       <c r="C6" t="n">
-        <v>553938.045384481</v>
+        <v>553938.0453844811</v>
       </c>
       <c r="D6" t="n">
-        <v>392734.1971362664</v>
+        <v>553938.0453844804</v>
       </c>
       <c r="E6" t="n">
-        <v>332746.9096125239</v>
+        <v>150673.9297953326</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.3714198795</v>
+        <v>658159.371419879</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.3714198793</v>
+        <v>658159.3714198794</v>
       </c>
       <c r="H6" t="n">
         <v>658159.3714198793</v>
       </c>
       <c r="I6" t="n">
-        <v>658159.371419879</v>
+        <v>658159.3714198788</v>
       </c>
       <c r="J6" t="n">
-        <v>490554.1936098967</v>
+        <v>490554.1936098966</v>
       </c>
       <c r="K6" t="n">
-        <v>641899.6197987087</v>
+        <v>658159.3714198791</v>
       </c>
       <c r="L6" t="n">
-        <v>613033.3677841502</v>
+        <v>658159.3714198791</v>
       </c>
       <c r="M6" t="n">
-        <v>576272.3098568288</v>
+        <v>525552.0776909522</v>
       </c>
       <c r="N6" t="n">
-        <v>661327.3377923411</v>
+        <v>658159.3714198791</v>
       </c>
       <c r="O6" t="n">
-        <v>661327.3377923409</v>
+        <v>658159.3714198791</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.3714198794</v>
+        <v>658159.3714198791</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26712,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203978</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203978</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26792,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>640.5848321000386</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000385</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022544</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>328.0627193588903</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>378.2496580495848</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0690483121601</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>267.2963732141324</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>173.0313165627914</v>
+        <v>103.54854070767</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>23.67573752453129</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27819,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>144.8810607059118</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149.1044152748382</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>90.49867536799792</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>30.19606181443395</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>55.56142007498394</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29053,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29101,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>-7.579122514774402e-14</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30508,19 +30510,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>7.579122514774402e-14</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
@@ -31361,28 +31363,28 @@
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
         <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31391,10 +31393,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31437,19 +31439,19 @@
         <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
         <v>264.0341136849626</v>
@@ -31458,25 +31460,25 @@
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31843,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>138.5955196772175</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32092,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32549,13 +32551,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P21" t="n">
-        <v>456.5952253539618</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,25 +32794,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968503</v>
+        <v>730.8697159579444</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>153.8606640989137</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,13 +33265,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>344.6306853939244</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33511,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>187.2159464875253</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33672,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33743,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,7 +33982,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>316.2462973459355</v>
+        <v>328.9038320421819</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>615.1181176946646</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34787,19 +34789,19 @@
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>451.5550768668496</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>405.4553316172015</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091734</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676416</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>577.7882979947788</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308545</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468032</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>336.3802954844301</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634693</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7540807028584537</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35662,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35740,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P21" t="n">
-        <v>322.6208179396315</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748321</v>
+        <v>588.7356820359261</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37087,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>206.7892464195654</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>55.87423440419198</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37318,7 +37320,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37391,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>176.264523259914</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>483.7764056113314</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3715880.813016522</v>
+        <v>3711743.65576637</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7595035.794131109</v>
+        <v>7595035.794131108</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>33.29804472336924</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>148.6960808375086</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>18.93078090706818</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>85.45564210299027</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>303.3275050340415</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>230.401329120201</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>124.9397354936811</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>231.7529493611895</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>264.184366252685</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>198.665112493189</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>118.4194112037784</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110092</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701341</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>131.4244133395511</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>47.84205650381972</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722612</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>9.795251606876045</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>177.696569780335</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634798</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>162.3413016667496</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722626</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>40.32853379926828</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634822</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>100.4057322893114</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,13 +3243,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>159.2661870898838</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187855</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>172.3645574474261</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.1266359366685</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>61.62152140683686</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>21.90286287505374</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1593.528088680778</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="C2" t="n">
-        <v>1224.565571740366</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="D2" t="n">
-        <v>866.2998731336158</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E2" t="n">
-        <v>866.2998731336158</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>455.3139683440083</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,46 +4336,46 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2287.442059474598</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2033.860998738778</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>1702.798111395207</v>
       </c>
       <c r="W2" t="n">
-        <v>2353.59368700598</v>
+        <v>1702.798111395207</v>
       </c>
       <c r="X2" t="n">
-        <v>1980.1279287449</v>
+        <v>1702.798111395207</v>
       </c>
       <c r="Y2" t="n">
-        <v>1980.1279287449</v>
+        <v>1312.658779419395</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.463386300792</v>
+        <v>1552.492103330614</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506776</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4442,7 +4442,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.0678491612455</v>
+        <v>919.6966947956497</v>
       </c>
       <c r="C4" t="n">
-        <v>455.1316662333386</v>
+        <v>750.7605118677428</v>
       </c>
       <c r="D4" t="n">
-        <v>305.0150268210028</v>
+        <v>600.6438724554071</v>
       </c>
       <c r="E4" t="n">
-        <v>157.1019332386097</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U4" t="n">
-        <v>1095.133484028446</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V4" t="n">
-        <v>1095.133484028446</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W4" t="n">
-        <v>805.7163139914852</v>
+        <v>1550.127289667437</v>
       </c>
       <c r="X4" t="n">
-        <v>805.7163139914852</v>
+        <v>1322.137738769419</v>
       </c>
       <c r="Y4" t="n">
-        <v>805.7163139914852</v>
+        <v>1101.345159625889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.692669339133</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="C5" t="n">
-        <v>1179.730152398721</v>
+        <v>1131.26500063671</v>
       </c>
       <c r="D5" t="n">
-        <v>821.4644537919705</v>
+        <v>772.9993020299596</v>
       </c>
       <c r="E5" t="n">
-        <v>435.6762011937263</v>
+        <v>772.9993020299596</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>766.0538012807561</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>350.349051005045</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664334</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664334</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664334</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403254</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.292509403254</v>
+        <v>1500.227517577122</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310612</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>870.3292415458922</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>1233.591260505112</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>493.2746700177406</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
-        <v>324.3384870898337</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800309</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028471</v>
+        <v>1402.352231830872</v>
       </c>
       <c r="W7" t="n">
-        <v>895.7157139915105</v>
+        <v>1112.935061793911</v>
       </c>
       <c r="X7" t="n">
-        <v>895.7157139915105</v>
+        <v>884.9455108958939</v>
       </c>
       <c r="Y7" t="n">
-        <v>674.9231348479804</v>
+        <v>664.1529317523638</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1092.930574522032</v>
+        <v>1842.29463946833</v>
       </c>
       <c r="C8" t="n">
-        <v>1092.930574522032</v>
+        <v>1473.332122527918</v>
       </c>
       <c r="D8" t="n">
-        <v>826.0776793172992</v>
+        <v>1115.066423921168</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>729.2781713229233</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>318.2922665333157</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926624</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190804</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>1852.996172847233</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>1852.996172847233</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X8" t="n">
-        <v>1479.530414586153</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1479.530414586153</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310612</v>
+        <v>590.2049751143488</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625327</v>
+        <v>884.9085321458207</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217527</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1676.586023648284</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>908.4431888110449</v>
+        <v>461.9138669598628</v>
       </c>
       <c r="C10" t="n">
-        <v>739.507005883138</v>
+        <v>292.977684031956</v>
       </c>
       <c r="D10" t="n">
-        <v>619.8914390106346</v>
+        <v>142.8610446196202</v>
       </c>
       <c r="E10" t="n">
-        <v>471.9783454282415</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1310.884232784815</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.884232784815</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>1310.884232784815</v>
+        <v>864.3549109336327</v>
       </c>
       <c r="Y10" t="n">
-        <v>1090.091653641285</v>
+        <v>643.5623317901026</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5032,58 +5032,58 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.652278938886</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.5579673960132</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>614.6217844681063</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T13" t="n">
-        <v>2247.16544716645</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U13" t="n">
-        <v>1958.090220510648</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.405732304761</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.9885622678</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.999011369783</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.2064322262529</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,7 +5275,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5415,22 +5415,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576781</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5518,16 +5518,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5718,7 +5718,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2283.159972732779</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,52 +6220,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
         <v>3094.515198591809</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1336.167399417937</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2311.700279152292</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2544.961939527175</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3047.140839595365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467152</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.581883569135</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.789304425605</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2345.543151974895</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2125.941686997837</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.866460342035</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.866460342035</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1547.449290305074</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1319.459739407057</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>1098.667160263527</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081858</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153951</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741615</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661312</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4516.727538815334</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4516.727538815334</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4227.652312159532</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3972.967823953645</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953645</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055628</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912098</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7168,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3175.341129796738</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3006.404946868831</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>2856.288307456495</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>2708.375213874102</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376192</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673936</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018134</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812247</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3571.009098775286</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3571.009098775286</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3350.216519631756</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2383.002557118213</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>2878.328163333972</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3475.706650960524</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4103.30461451513</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4655.214344754417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C43" t="n">
-        <v>527.7722521572603</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D43" t="n">
-        <v>527.7722521572603</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E43" t="n">
-        <v>379.8591585748671</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071647</v>
+        <v>211.0329012241565</v>
       </c>
       <c r="O3" t="n">
-        <v>70.03064962107845</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8300,16 +8300,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>280.1079373569287</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>231.258281436323</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780633</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.955613488307165</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154992</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>85.98103698773721</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>97.57899151911153</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>138.8202214113363</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>43.26526345294991</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.329716221309553</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>126.9182872993595</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>80.62055371233322</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,13 +25131,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>126.9182872993604</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>8.661728554218513</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6.705344245268776</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.79952661609438</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>126.7126101431586</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671402</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710697</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="F2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="K2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="H2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>766789.2697055056</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.269705506</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055059</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="N2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055056</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245455</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,43 +26420,43 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171962</v>
+        <v>7507.368461719702</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.36846171966</v>
+        <v>7507.368461719632</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719629</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719586</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719716</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
+        <v>7507.368461719668</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719684</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-560813.7381914394</v>
+        <v>-560813.7381914395</v>
       </c>
       <c r="C6" t="n">
-        <v>553938.0453844811</v>
+        <v>553938.0453844804</v>
       </c>
       <c r="D6" t="n">
         <v>553938.0453844804</v>
       </c>
       <c r="E6" t="n">
-        <v>150673.9297953326</v>
+        <v>150326.5505409766</v>
       </c>
       <c r="F6" t="n">
-        <v>658159.371419879</v>
+        <v>657811.9921655222</v>
       </c>
       <c r="G6" t="n">
-        <v>658159.3714198794</v>
+        <v>657811.9921655222</v>
       </c>
       <c r="H6" t="n">
-        <v>658159.3714198793</v>
+        <v>657811.992165522</v>
       </c>
       <c r="I6" t="n">
-        <v>658159.3714198788</v>
+        <v>657811.992165522</v>
       </c>
       <c r="J6" t="n">
-        <v>490554.1936098966</v>
+        <v>490206.8143555398</v>
       </c>
       <c r="K6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.992165522</v>
       </c>
       <c r="L6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655218</v>
       </c>
       <c r="M6" t="n">
-        <v>525552.0776909522</v>
+        <v>525204.6984365953</v>
       </c>
       <c r="N6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655221</v>
       </c>
       <c r="O6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655217</v>
       </c>
       <c r="P6" t="n">
-        <v>658159.3714198791</v>
+        <v>657811.9921655217</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.916333841085361e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,22 +27381,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>378.2496580495848</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>57.96210414272514</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>267.2963732141324</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>201.0673562336007</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>103.54854070767</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>70.61722344220439</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>23.67573752453129</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27824,7 +27824,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,13 +27833,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>20.38469396263849</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>90.49867536799792</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>212.8825902797649</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>30.19606181443395</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546825</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.868239393360454e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -29055,7 +29055,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>-7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30462,7 +30462,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30510,19 +30510,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,31 +31436,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,31 +31673,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>403.3065760821439</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,13 +32092,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.7456072667729</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,7 +32338,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>624.1318526922785</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>730.8697159579444</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>153.8606640989137</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>289.7537444526272</v>
+        <v>144.2373595085334</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>187.2159464875253</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>328.9038320421819</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N45" t="n">
-        <v>615.1181176946646</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>602.2300008170305</v>
       </c>
       <c r="O3" t="n">
-        <v>405.4553316172015</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434847</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>577.7882979947788</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000386</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>566.6829634324462</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939898</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091737</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434847</v>
+        <v>355.3309544215482</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>336.3802954844301</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634693</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>265.4651371077849</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35664,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,13 +35740,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>314.9434509778017</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>481.5356082478341</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>588.7356820359261</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.181160134949776</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>151.9123054782682</v>
+        <v>6.395920534174421</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>55.87423440419198</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>188.9220579561604</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N45" t="n">
-        <v>483.7764056113314</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3711743.65576637</v>
+        <v>3713504.186069157</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7595035.794131108</v>
+        <v>7595035.794131109</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>19.29551130269837</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>148.6960808375086</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>50.98074812542834</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>85.45564210299027</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>280.4116161140456</v>
       </c>
       <c r="H5" t="n">
-        <v>230.401329120201</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>231.7529493611895</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>59.78413675047758</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>233.8447291789218</v>
       </c>
       <c r="G8" t="n">
-        <v>198.665112493189</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110092</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542857</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.88641949135589</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>177.696569780335</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2614,7 +2614,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187872</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>275.330023919727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,22 +3663,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.91555826189102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>99.97427419833861</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>926.0589393552737</v>
+        <v>867.511359413126</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552737</v>
+        <v>867.511359413126</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>867.511359413126</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>481.7231068148818</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>70.7372020252742</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4345,10 +4345,10 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.250581723851</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2287.442059474598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2033.860998738778</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1702.798111395207</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1702.798111395207</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1702.798111395207</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>1312.658779419395</v>
+        <v>1254.111199477248</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145207</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625333</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217535</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330614</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506776</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400156</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>919.6966947956497</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C4" t="n">
-        <v>750.7605118677428</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D4" t="n">
-        <v>600.6438724554071</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E4" t="n">
-        <v>452.7307788730139</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1550.127289667437</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>1322.137738769419</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.345159625889</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1500.227517577122</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="C5" t="n">
-        <v>1131.26500063671</v>
+        <v>1131.265000636709</v>
       </c>
       <c r="D5" t="n">
-        <v>772.9993020299596</v>
+        <v>1131.265000636709</v>
       </c>
       <c r="E5" t="n">
-        <v>772.9993020299596</v>
+        <v>745.4767480384648</v>
       </c>
       <c r="F5" t="n">
-        <v>766.0538012807561</v>
+        <v>334.4908432488573</v>
       </c>
       <c r="G5" t="n">
-        <v>350.349051005045</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362831</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816097</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230818</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190807</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847236</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577122</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.227517577122</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1500.227517577122</v>
+        <v>1500.227517577121</v>
       </c>
     </row>
     <row r="6">
@@ -4640,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625333</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1614.486495938517</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="V7" t="n">
-        <v>1402.352231830872</v>
+        <v>1279.178225384192</v>
       </c>
       <c r="W7" t="n">
-        <v>1112.935061793911</v>
+        <v>1218.790208464518</v>
       </c>
       <c r="X7" t="n">
-        <v>884.9455108958939</v>
+        <v>990.8006575665006</v>
       </c>
       <c r="Y7" t="n">
-        <v>664.1529317523638</v>
+        <v>770.0080784229705</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1842.29463946833</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C8" t="n">
-        <v>1473.332122527918</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D8" t="n">
-        <v>1115.066423921168</v>
+        <v>684.9061825519805</v>
       </c>
       <c r="E8" t="n">
-        <v>729.2781713229233</v>
+        <v>299.1179299537362</v>
       </c>
       <c r="F8" t="n">
-        <v>318.2922665333157</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.894479532451</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>2228.894479532451</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143488</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458207</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>957.2304598751764</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701986</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598628</v>
+        <v>716.5983551657498</v>
       </c>
       <c r="C10" t="n">
-        <v>292.977684031956</v>
+        <v>547.6621722378429</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196202</v>
+        <v>397.5455328255072</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800313</v>
+        <v>249.632439243114</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800313</v>
+        <v>102.7424917452037</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.761631868611</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336327</v>
+        <v>1119.03939913952</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901026</v>
+        <v>898.2468199959895</v>
       </c>
     </row>
     <row r="11">
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2410.714175003133</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.714175003133</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.112710026075</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5296,22 +5296,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,16 +5764,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,7 +5843,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2267.47159895366</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2267.47159895366</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1978.396372297858</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1723.711884091971</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1434.29471405501</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6080,7 +6080,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6220,46 +6220,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,43 +6442,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>251.5626541092265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951537</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
         <v>388.6197041282754</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7168,37 +7168,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,7 +7247,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273905</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474266</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650335</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7736,19 +7736,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>194.8007783998291</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>54.95314511566602</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241565</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>231.258281436323</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780633</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.9556134883059713</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.48882721876579</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>3.329716221309553</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>43.26526345294995</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>145.6085800303778</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671405</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652426.6633671403</v>
+        <v>652426.6633671402</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>652426.6633671405</v>
+        <v>652426.6633671403</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055057</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766789.2697055056</v>
-      </c>
       <c r="M2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="O2" t="n">
-        <v>766789.2697055055</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.920889983215602e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>133113.8635467443</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719702</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26435,16 +26435,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719629</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719586</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
@@ -26453,7 +26453,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719626</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-560813.7381914395</v>
+        <v>-560813.7381914392</v>
       </c>
       <c r="C6" t="n">
-        <v>553938.0453844804</v>
+        <v>553938.0453844805</v>
       </c>
       <c r="D6" t="n">
-        <v>553938.0453844804</v>
+        <v>553938.0453844802</v>
       </c>
       <c r="E6" t="n">
-        <v>150326.5505409766</v>
+        <v>150639.1918698975</v>
       </c>
       <c r="F6" t="n">
-        <v>657811.9921655222</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="G6" t="n">
-        <v>657811.9921655222</v>
+        <v>658124.6334944436</v>
       </c>
       <c r="H6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944436</v>
       </c>
       <c r="I6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="J6" t="n">
-        <v>490206.8143555398</v>
+        <v>490519.4556844608</v>
       </c>
       <c r="K6" t="n">
-        <v>657811.992165522</v>
+        <v>658124.6334944433</v>
       </c>
       <c r="L6" t="n">
-        <v>657811.9921655218</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="M6" t="n">
-        <v>525204.6984365953</v>
+        <v>525517.3397655168</v>
       </c>
       <c r="N6" t="n">
-        <v>657811.9921655221</v>
+        <v>658124.6334944435</v>
       </c>
       <c r="O6" t="n">
-        <v>657811.9921655217</v>
+        <v>658124.6334944434</v>
       </c>
       <c r="P6" t="n">
-        <v>657811.9921655217</v>
+        <v>658124.6334944434</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175394</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.916333841085361e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>392.2521914702556</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>57.96210414272514</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>96.27076102970051</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>201.0673562336007</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>131.1360866589084</v>
       </c>
       <c r="H5" t="n">
-        <v>70.61722344220439</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>20.38469396263849</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>226.7388615861134</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>173.0313165627897</v>
       </c>
       <c r="G8" t="n">
-        <v>212.8825902797649</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546825</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193756</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.868239393360454e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-5.898793479608074e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31077,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>414.6448185524877</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>295.974394015948</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>144.2373595085334</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391492</v>
+        <v>263.7590256391496</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34456,31 +34456,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065834</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170305</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>566.6829634324462</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215482</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>367.8869457703466</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35269,13 +35269,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>272.5107846304694</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>161.9999866016177</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396434</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>6.395920534174421</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558158</v>
+        <v>132.4173135558163</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
